--- a/data/excel/FlightManualBooking.xlsx
+++ b/data/excel/FlightManualBooking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54746E45-888B-4F7F-987E-52CF28D05B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BF3D76-967A-4E53-8789-2B1E043B7878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="25410" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BODC" sheetId="3" r:id="rId1"/>
@@ -902,7 +902,7 @@
   <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excel/FlightManualBooking.xlsx
+++ b/data/excel/FlightManualBooking.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BF3D76-967A-4E53-8789-2B1E043B7878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE52EAD7-70F7-4179-B6DD-0D02DFA9516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="25410" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BODC" sheetId="3" r:id="rId1"/>
-    <sheet name="BOCA" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="BOCA" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="187">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -67,9 +70,6 @@
     <t>qlabs12345</t>
   </si>
   <si>
-    <t>Piyush_QL</t>
-  </si>
-  <si>
     <t>SelectClient</t>
   </si>
   <si>
@@ -445,21 +445,9 @@
     <t>7777777107,7777777108,7777777109,7777777110,8888888827</t>
   </si>
   <si>
-    <t>Password@@12</t>
-  </si>
-  <si>
-    <t>merg123456</t>
-  </si>
-  <si>
     <t>kumar.gaurav@quadlabs.com</t>
   </si>
   <si>
-    <t>//xchangev12/backoffice/Home.aspx</t>
-  </si>
-  <si>
-    <t>Piyush@1234</t>
-  </si>
-  <si>
     <t>piyush.chauhan@quadlabs.com</t>
   </si>
   <si>
@@ -487,9 +475,6 @@
     <t>17-Oct-2024</t>
   </si>
   <si>
-    <t>7777777501,8888888824,8888888825,8888888826,8888888827</t>
-  </si>
-  <si>
     <t>7777777502,7777777503,8888888825,8888888826,8888888827</t>
   </si>
   <si>
@@ -509,6 +494,108 @@
   </si>
   <si>
     <t>7777777582,7777777583,7777777584,7777777585,7777777586</t>
+  </si>
+  <si>
+    <t>ankur_ql</t>
+  </si>
+  <si>
+    <t>Ankur@123456</t>
+  </si>
+  <si>
+    <t>5-Aug-2024,5-Feb-2024</t>
+  </si>
+  <si>
+    <t>5-Aug-2025</t>
+  </si>
+  <si>
+    <t>7-Aug-2025</t>
+  </si>
+  <si>
+    <t>15-Aug-2025</t>
+  </si>
+  <si>
+    <t>17-Aug-2025</t>
+  </si>
+  <si>
+    <t>akshay.kumar@quadlabs.com</t>
+  </si>
+  <si>
+    <t>7777777502,8888888824,8888888825,8888888826,8888888827</t>
+  </si>
+  <si>
+    <t>7007777102,8800888824,8800888825,8800888826,8800888827</t>
+  </si>
+  <si>
+    <t>qlabs12346</t>
+  </si>
+  <si>
+    <t>qlabs12347</t>
+  </si>
+  <si>
+    <t>qlabs12348</t>
+  </si>
+  <si>
+    <t>qlabs12349</t>
+  </si>
+  <si>
+    <t>qlabs12350</t>
+  </si>
+  <si>
+    <t>qlabs12351</t>
+  </si>
+  <si>
+    <t>qlabs12352</t>
+  </si>
+  <si>
+    <t>qlabs12353</t>
+  </si>
+  <si>
+    <t>qlabs12354</t>
+  </si>
+  <si>
+    <t>6-Aug-2025</t>
+  </si>
+  <si>
+    <t>8-Aug-2025</t>
+  </si>
+  <si>
+    <t>16-Aug-2025</t>
+  </si>
+  <si>
+    <t>18-Aug-2025</t>
+  </si>
+  <si>
+    <t>10,15</t>
+  </si>
+  <si>
+    <t>7770007077,7700777078,8888888825,8888888826,8888888827</t>
+  </si>
+  <si>
+    <t>7777000101,8888008824,8888888825,8888888826,8888888827</t>
+  </si>
+  <si>
+    <t>piyush@gmail.com</t>
+  </si>
+  <si>
+    <t>Gaurav Shah,Sumit Shah</t>
+  </si>
+  <si>
+    <t>5-Aug-2024,6-Feb-2024</t>
+  </si>
+  <si>
+    <t>26-Sep-2025</t>
+  </si>
+  <si>
+    <t>28-Sep-2025</t>
+  </si>
+  <si>
+    <t>14-Oct-2025</t>
+  </si>
+  <si>
+    <t>16-Oct-2025</t>
+  </si>
+  <si>
+    <t>7777000502,8888000824,8888888825,8888888826,8888888827</t>
   </si>
 </sst>
 </file>
@@ -603,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -615,9 +702,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -901,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8A60BA-B3CF-40F5-BA52-FF2E931720C5}">
   <dimension ref="A1:BP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:BP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,187 +1092,187 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="R1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="V1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="AQ1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BI1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="BI1" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="BJ1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BL1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BL1" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="BM1" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BN1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="BP1" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
@@ -1188,25 +1280,25 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I2" s="9">
         <v>1</v>
@@ -1218,201 +1310,201 @@
         <v>0</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
         <v>70</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S2">
         <v>124578</v>
       </c>
       <c r="T2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
         <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>27</v>
       </c>
       <c r="X2">
         <v>123</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z2">
         <v>12</v>
       </c>
       <c r="AA2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2">
+        <v>14</v>
+      </c>
+      <c r="AC2" t="s">
         <v>21</v>
       </c>
-      <c r="AB2">
-        <v>14</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>22</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>23</v>
       </c>
       <c r="AE2">
         <v>784521</v>
       </c>
       <c r="AF2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI2">
         <v>123</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK2">
         <v>12</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM2">
         <v>14</v>
       </c>
       <c r="AN2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" t="s">
         <v>22</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>23</v>
       </c>
       <c r="AP2">
         <v>784541</v>
       </c>
       <c r="AQ2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR2">
         <v>100</v>
       </c>
       <c r="AS2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT2" t="s">
         <v>28</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="s">
         <v>29</v>
       </c>
-      <c r="AU2">
-        <v>2</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>30</v>
-      </c>
       <c r="AW2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX2">
         <v>100</v>
       </c>
       <c r="AY2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>28</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2">
+        <v>2</v>
+      </c>
+      <c r="BB2" t="s">
         <v>29</v>
       </c>
-      <c r="BA2">
-        <v>2</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>30</v>
-      </c>
       <c r="BC2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD2">
         <v>100</v>
       </c>
       <c r="BE2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF2" t="s">
         <v>28</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="s">
         <v>29</v>
       </c>
-      <c r="BG2">
-        <v>2</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>30</v>
-      </c>
       <c r="BI2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK2" s="9">
         <v>3</v>
       </c>
       <c r="BL2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BN2">
         <v>30</v>
       </c>
       <c r="BO2" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BP2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>137</v>
+        <v>163</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
@@ -1424,201 +1516,201 @@
         <v>0</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
         <v>70</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>71</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S3">
         <v>124578</v>
       </c>
       <c r="T3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
         <v>26</v>
-      </c>
-      <c r="V3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" t="s">
-        <v>27</v>
       </c>
       <c r="X3">
         <v>123</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z3">
         <v>12</v>
       </c>
       <c r="AA3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3">
+        <v>14</v>
+      </c>
+      <c r="AC3" t="s">
         <v>21</v>
       </c>
-      <c r="AB3">
-        <v>14</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>22</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>23</v>
       </c>
       <c r="AE3">
         <v>784521</v>
       </c>
       <c r="AF3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI3">
         <v>123</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK3">
         <v>12</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM3">
         <v>14</v>
       </c>
       <c r="AN3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO3" t="s">
         <v>22</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>23</v>
       </c>
       <c r="AP3">
         <v>784541</v>
       </c>
       <c r="AQ3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR3">
         <v>100</v>
       </c>
       <c r="AS3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT3" t="s">
         <v>28</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3">
+        <v>2</v>
+      </c>
+      <c r="AV3" t="s">
         <v>29</v>
       </c>
-      <c r="AU3">
-        <v>2</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>30</v>
-      </c>
       <c r="AW3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX3">
         <v>100</v>
       </c>
       <c r="AY3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>28</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3">
+        <v>2</v>
+      </c>
+      <c r="BB3" t="s">
         <v>29</v>
       </c>
-      <c r="BA3">
-        <v>2</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>30</v>
-      </c>
       <c r="BC3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD3">
         <v>100</v>
       </c>
       <c r="BE3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF3" t="s">
         <v>28</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3">
+        <v>2</v>
+      </c>
+      <c r="BH3" t="s">
         <v>29</v>
       </c>
-      <c r="BG3">
-        <v>2</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>30</v>
-      </c>
       <c r="BI3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK3" s="9">
         <v>1</v>
       </c>
       <c r="BL3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BN3">
         <v>30</v>
       </c>
       <c r="BO3" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BP3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>137</v>
+        <v>164</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
@@ -1630,201 +1722,201 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S4">
         <v>124578</v>
       </c>
       <c r="T4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
         <v>26</v>
-      </c>
-      <c r="V4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" t="s">
-        <v>27</v>
       </c>
       <c r="X4">
         <v>123</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z4">
         <v>12</v>
       </c>
       <c r="AA4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4">
+        <v>14</v>
+      </c>
+      <c r="AC4" t="s">
         <v>21</v>
       </c>
-      <c r="AB4">
-        <v>14</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>22</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>23</v>
       </c>
       <c r="AE4">
         <v>784521</v>
       </c>
       <c r="AF4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI4">
         <v>123</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK4">
         <v>12</v>
       </c>
       <c r="AL4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM4">
         <v>14</v>
       </c>
       <c r="AN4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO4" t="s">
         <v>22</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>23</v>
       </c>
       <c r="AP4">
         <v>784541</v>
       </c>
       <c r="AQ4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR4">
         <v>100</v>
       </c>
       <c r="AS4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT4" t="s">
         <v>28</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4" t="s">
         <v>29</v>
       </c>
-      <c r="AU4">
-        <v>2</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>30</v>
-      </c>
       <c r="AW4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX4">
         <v>100</v>
       </c>
       <c r="AY4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>28</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4">
+        <v>2</v>
+      </c>
+      <c r="BB4" t="s">
         <v>29</v>
       </c>
-      <c r="BA4">
-        <v>2</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>30</v>
-      </c>
       <c r="BC4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD4">
         <v>100</v>
       </c>
       <c r="BE4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF4" t="s">
         <v>28</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4">
+        <v>2</v>
+      </c>
+      <c r="BH4" t="s">
         <v>29</v>
       </c>
-      <c r="BG4">
-        <v>2</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>30</v>
-      </c>
       <c r="BI4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK4" s="9">
         <v>2</v>
       </c>
       <c r="BL4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BN4">
         <v>30</v>
       </c>
       <c r="BO4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BP4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>137</v>
+        <v>165</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
@@ -1836,201 +1928,201 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
         <v>70</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S5">
         <v>124578</v>
       </c>
       <c r="T5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
         <v>26</v>
-      </c>
-      <c r="V5" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" t="s">
-        <v>27</v>
       </c>
       <c r="X5">
         <v>123</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z5">
         <v>12</v>
       </c>
       <c r="AA5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5">
+        <v>14</v>
+      </c>
+      <c r="AC5" t="s">
         <v>21</v>
       </c>
-      <c r="AB5">
-        <v>14</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>22</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>23</v>
       </c>
       <c r="AE5">
         <v>784521</v>
       </c>
       <c r="AF5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI5">
         <v>123</v>
       </c>
       <c r="AJ5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK5">
         <v>12</v>
       </c>
       <c r="AL5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM5">
         <v>14</v>
       </c>
       <c r="AN5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO5" t="s">
         <v>22</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>23</v>
       </c>
       <c r="AP5">
         <v>784541</v>
       </c>
       <c r="AQ5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5">
         <v>100</v>
       </c>
       <c r="AS5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT5" t="s">
         <v>28</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5">
+        <v>2</v>
+      </c>
+      <c r="AV5" t="s">
         <v>29</v>
       </c>
-      <c r="AU5">
-        <v>2</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>30</v>
-      </c>
       <c r="AW5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX5">
         <v>100</v>
       </c>
       <c r="AY5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>28</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5">
+        <v>2</v>
+      </c>
+      <c r="BB5" t="s">
         <v>29</v>
       </c>
-      <c r="BA5">
-        <v>2</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>30</v>
-      </c>
       <c r="BC5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD5">
         <v>100</v>
       </c>
       <c r="BE5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF5" t="s">
         <v>28</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5">
+        <v>2</v>
+      </c>
+      <c r="BH5" t="s">
         <v>29</v>
       </c>
-      <c r="BG5">
-        <v>2</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>30</v>
-      </c>
       <c r="BI5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK5" s="9">
         <v>1</v>
       </c>
       <c r="BL5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BN5">
         <v>30</v>
       </c>
       <c r="BO5" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BP5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>137</v>
+        <v>166</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -2042,201 +2134,201 @@
         <v>1</v>
       </c>
       <c r="L6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>71</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S6">
         <v>124578</v>
       </c>
       <c r="T6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" t="s">
         <v>26</v>
-      </c>
-      <c r="V6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W6" t="s">
-        <v>27</v>
       </c>
       <c r="X6">
         <v>123</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z6">
         <v>12</v>
       </c>
       <c r="AA6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6">
+        <v>14</v>
+      </c>
+      <c r="AC6" t="s">
         <v>21</v>
       </c>
-      <c r="AB6">
-        <v>14</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>22</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>23</v>
       </c>
       <c r="AE6">
         <v>784521</v>
       </c>
       <c r="AF6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI6">
         <v>123</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK6">
         <v>12</v>
       </c>
       <c r="AL6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM6">
         <v>14</v>
       </c>
       <c r="AN6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO6" t="s">
         <v>22</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>23</v>
       </c>
       <c r="AP6">
         <v>784541</v>
       </c>
       <c r="AQ6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR6">
         <v>100</v>
       </c>
       <c r="AS6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT6" t="s">
         <v>28</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6">
+        <v>2</v>
+      </c>
+      <c r="AV6" t="s">
         <v>29</v>
       </c>
-      <c r="AU6">
-        <v>2</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>30</v>
-      </c>
       <c r="AW6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX6">
         <v>100</v>
       </c>
       <c r="AY6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>28</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6">
+        <v>2</v>
+      </c>
+      <c r="BB6" t="s">
         <v>29</v>
       </c>
-      <c r="BA6">
-        <v>2</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>30</v>
-      </c>
       <c r="BC6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD6">
         <v>100</v>
       </c>
       <c r="BE6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF6" t="s">
         <v>28</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6">
+        <v>2</v>
+      </c>
+      <c r="BH6" t="s">
         <v>29</v>
       </c>
-      <c r="BG6">
-        <v>2</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>30</v>
-      </c>
       <c r="BI6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK6" s="9">
         <v>1</v>
       </c>
       <c r="BL6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BN6">
         <v>30</v>
       </c>
       <c r="BO6" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BP6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>137</v>
+        <v>167</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I7" s="9">
         <v>1</v>
@@ -2248,201 +2340,201 @@
         <v>0</v>
       </c>
       <c r="L7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
         <v>70</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>71</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S7">
         <v>124578</v>
       </c>
       <c r="T7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" t="s">
         <v>26</v>
-      </c>
-      <c r="V7" t="s">
-        <v>38</v>
-      </c>
-      <c r="W7" t="s">
-        <v>27</v>
       </c>
       <c r="X7">
         <v>123</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z7">
         <v>12</v>
       </c>
       <c r="AA7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7">
+        <v>14</v>
+      </c>
+      <c r="AC7" t="s">
         <v>21</v>
       </c>
-      <c r="AB7">
-        <v>14</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>22</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>23</v>
       </c>
       <c r="AE7">
         <v>784521</v>
       </c>
       <c r="AF7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7">
         <v>123</v>
       </c>
       <c r="AJ7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK7">
         <v>12</v>
       </c>
       <c r="AL7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM7">
         <v>14</v>
       </c>
       <c r="AN7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO7" t="s">
         <v>22</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>23</v>
       </c>
       <c r="AP7">
         <v>784541</v>
       </c>
       <c r="AQ7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR7">
         <v>100</v>
       </c>
       <c r="AS7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT7" t="s">
         <v>28</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7">
+        <v>2</v>
+      </c>
+      <c r="AV7" t="s">
         <v>29</v>
       </c>
-      <c r="AU7">
-        <v>2</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>30</v>
-      </c>
       <c r="AW7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX7">
         <v>100</v>
       </c>
       <c r="AY7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>28</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7">
+        <v>2</v>
+      </c>
+      <c r="BB7" t="s">
         <v>29</v>
       </c>
-      <c r="BA7">
-        <v>2</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>30</v>
-      </c>
       <c r="BC7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD7">
         <v>100</v>
       </c>
       <c r="BE7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF7" t="s">
         <v>28</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7">
+        <v>2</v>
+      </c>
+      <c r="BH7" t="s">
         <v>29</v>
       </c>
-      <c r="BG7">
-        <v>2</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>30</v>
-      </c>
       <c r="BI7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK7" s="9">
         <v>3</v>
       </c>
       <c r="BL7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BN7">
         <v>30</v>
       </c>
       <c r="BO7" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BP7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>137</v>
+        <v>168</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="9">
         <v>1</v>
@@ -2454,201 +2546,201 @@
         <v>0</v>
       </c>
       <c r="L8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
         <v>70</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>71</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S8">
         <v>124578</v>
       </c>
       <c r="T8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" t="s">
         <v>26</v>
-      </c>
-      <c r="V8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" t="s">
-        <v>27</v>
       </c>
       <c r="X8">
         <v>123</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z8">
         <v>12</v>
       </c>
       <c r="AA8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8">
+        <v>14</v>
+      </c>
+      <c r="AC8" t="s">
         <v>21</v>
       </c>
-      <c r="AB8">
-        <v>14</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>22</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>23</v>
       </c>
       <c r="AE8">
         <v>784521</v>
       </c>
       <c r="AF8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI8">
         <v>123</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK8">
         <v>12</v>
       </c>
       <c r="AL8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM8">
         <v>14</v>
       </c>
       <c r="AN8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO8" t="s">
         <v>22</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>23</v>
       </c>
       <c r="AP8">
         <v>784541</v>
       </c>
       <c r="AQ8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR8">
         <v>100</v>
       </c>
       <c r="AS8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT8" t="s">
         <v>28</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="s">
         <v>29</v>
       </c>
-      <c r="AU8">
-        <v>2</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>30</v>
-      </c>
       <c r="AW8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX8">
         <v>100</v>
       </c>
       <c r="AY8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>28</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8">
+        <v>2</v>
+      </c>
+      <c r="BB8" t="s">
         <v>29</v>
       </c>
-      <c r="BA8">
-        <v>2</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>30</v>
-      </c>
       <c r="BC8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD8">
         <v>100</v>
       </c>
       <c r="BE8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF8" t="s">
         <v>28</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8">
+        <v>2</v>
+      </c>
+      <c r="BH8" t="s">
         <v>29</v>
       </c>
-      <c r="BG8">
-        <v>2</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>30</v>
-      </c>
       <c r="BI8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK8" s="9">
         <v>1</v>
       </c>
       <c r="BL8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BN8">
         <v>30</v>
       </c>
       <c r="BO8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BP8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>137</v>
+        <v>169</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="9">
         <v>1</v>
@@ -2660,201 +2752,201 @@
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
         <v>70</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>71</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S9">
         <v>124578</v>
       </c>
       <c r="T9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" t="s">
         <v>26</v>
-      </c>
-      <c r="V9" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" t="s">
-        <v>27</v>
       </c>
       <c r="X9">
         <v>123</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z9">
         <v>12</v>
       </c>
       <c r="AA9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9">
+        <v>14</v>
+      </c>
+      <c r="AC9" t="s">
         <v>21</v>
       </c>
-      <c r="AB9">
-        <v>14</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>22</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>23</v>
       </c>
       <c r="AE9">
         <v>784521</v>
       </c>
       <c r="AF9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9">
         <v>123</v>
       </c>
       <c r="AJ9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK9">
         <v>12</v>
       </c>
       <c r="AL9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM9">
         <v>14</v>
       </c>
       <c r="AN9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO9" t="s">
         <v>22</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>23</v>
       </c>
       <c r="AP9">
         <v>784541</v>
       </c>
       <c r="AQ9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR9">
         <v>100</v>
       </c>
       <c r="AS9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT9" t="s">
         <v>28</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9" t="s">
         <v>29</v>
       </c>
-      <c r="AU9">
-        <v>2</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>30</v>
-      </c>
       <c r="AW9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX9">
         <v>100</v>
       </c>
       <c r="AY9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>28</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9">
+        <v>2</v>
+      </c>
+      <c r="BB9" t="s">
         <v>29</v>
       </c>
-      <c r="BA9">
-        <v>2</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>30</v>
-      </c>
       <c r="BC9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD9">
         <v>100</v>
       </c>
       <c r="BE9" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF9" t="s">
         <v>28</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BG9">
+        <v>2</v>
+      </c>
+      <c r="BH9" t="s">
         <v>29</v>
       </c>
-      <c r="BG9">
-        <v>2</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>30</v>
-      </c>
       <c r="BI9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK9" s="9">
         <v>1</v>
       </c>
       <c r="BL9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BN9">
         <v>30</v>
       </c>
       <c r="BO9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BP9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>137</v>
+        <v>170</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I10" s="9">
         <v>2</v>
@@ -2866,201 +2958,201 @@
         <v>1</v>
       </c>
       <c r="L10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
         <v>70</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>71</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S10">
         <v>124578</v>
       </c>
       <c r="T10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U10" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" t="s">
         <v>26</v>
-      </c>
-      <c r="V10" t="s">
-        <v>38</v>
-      </c>
-      <c r="W10" t="s">
-        <v>27</v>
       </c>
       <c r="X10">
         <v>123</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z10">
         <v>12</v>
       </c>
       <c r="AA10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="s">
         <v>21</v>
       </c>
-      <c r="AB10">
-        <v>14</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>22</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>23</v>
       </c>
       <c r="AE10">
         <v>784521</v>
       </c>
       <c r="AF10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI10">
         <v>123</v>
       </c>
       <c r="AJ10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK10">
         <v>12</v>
       </c>
       <c r="AL10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM10">
         <v>14</v>
       </c>
       <c r="AN10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO10" t="s">
         <v>22</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>23</v>
       </c>
       <c r="AP10">
         <v>784541</v>
       </c>
       <c r="AQ10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR10">
         <v>100</v>
       </c>
       <c r="AS10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT10" t="s">
         <v>28</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10">
+        <v>2</v>
+      </c>
+      <c r="AV10" t="s">
         <v>29</v>
       </c>
-      <c r="AU10">
-        <v>2</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>30</v>
-      </c>
       <c r="AW10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX10">
         <v>100</v>
       </c>
       <c r="AY10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>28</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10">
+        <v>2</v>
+      </c>
+      <c r="BB10" t="s">
         <v>29</v>
       </c>
-      <c r="BA10">
-        <v>2</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>30</v>
-      </c>
       <c r="BC10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD10">
         <v>100</v>
       </c>
       <c r="BE10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF10" t="s">
         <v>28</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10">
+        <v>2</v>
+      </c>
+      <c r="BH10" t="s">
         <v>29</v>
       </c>
-      <c r="BG10">
-        <v>2</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>30</v>
-      </c>
       <c r="BI10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK10" s="9">
         <v>2</v>
       </c>
       <c r="BL10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BN10">
         <v>30</v>
       </c>
       <c r="BO10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BP10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>137</v>
+        <v>171</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" s="9">
         <v>2</v>
@@ -3072,185 +3164,182 @@
         <v>1</v>
       </c>
       <c r="L11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" t="s">
         <v>70</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>71</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S11">
         <v>124578</v>
       </c>
       <c r="T11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" t="s">
         <v>26</v>
-      </c>
-      <c r="V11" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" t="s">
-        <v>27</v>
       </c>
       <c r="X11">
         <v>123</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z11">
         <v>12</v>
       </c>
       <c r="AA11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11">
+        <v>14</v>
+      </c>
+      <c r="AC11" t="s">
         <v>21</v>
       </c>
-      <c r="AB11">
-        <v>14</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>22</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>23</v>
       </c>
       <c r="AE11">
         <v>784521</v>
       </c>
       <c r="AF11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11">
         <v>123</v>
       </c>
       <c r="AJ11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK11">
         <v>12</v>
       </c>
       <c r="AL11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM11">
         <v>14</v>
       </c>
       <c r="AN11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO11" t="s">
         <v>22</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>23</v>
       </c>
       <c r="AP11">
         <v>784541</v>
       </c>
       <c r="AQ11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR11">
         <v>100</v>
       </c>
       <c r="AS11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT11" t="s">
         <v>28</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11">
+        <v>2</v>
+      </c>
+      <c r="AV11" t="s">
         <v>29</v>
       </c>
-      <c r="AU11">
-        <v>2</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>30</v>
-      </c>
       <c r="AW11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX11">
         <v>100</v>
       </c>
       <c r="AY11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>28</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11">
+        <v>2</v>
+      </c>
+      <c r="BB11" t="s">
         <v>29</v>
       </c>
-      <c r="BA11">
-        <v>2</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>30</v>
-      </c>
       <c r="BC11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD11">
         <v>100</v>
       </c>
       <c r="BE11" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF11" t="s">
         <v>28</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BG11">
+        <v>2</v>
+      </c>
+      <c r="BH11" t="s">
         <v>29</v>
       </c>
-      <c r="BG11">
-        <v>2</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>30</v>
-      </c>
       <c r="BI11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK11" s="9">
         <v>1</v>
       </c>
       <c r="BL11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BN11">
         <v>30</v>
       </c>
       <c r="BO11" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BP11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="13">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:K11" xr:uid="{2BF9A17B-8264-4700-A928-A4DB336C1293}">
       <formula1>"0,1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11" xr:uid="{997C06AD-95DE-46E9-A103-AB8581E765AB}">
-      <formula1>"at,qlabs12345"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ11" xr:uid="{48DC80EE-CAF7-4D79-A049-4023D17DA3A8}">
       <formula1>"ABC Supplier,ATsupplier,BSP Supplier,gaurav travel"</formula1>
@@ -3267,61 +3356,1184 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V11" xr:uid="{1A92AC22-4C0A-4434-BD25-EF2B8FFB8B65}">
       <formula1>"One Way,Round Trip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{0F5C1780-0960-471C-8CF0-9D2144C9A77E}">
-      <formula1>"Piyush_QL,k.gaurav"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK11" xr:uid="{7EC555ED-E466-4962-B7C5-385F20953E65}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G11" xr:uid="{432552DE-B452-4E7A-8E27-B781FC58C773}">
-      <formula1>"Password@@12,Gaurav@130"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{E15CA942-1671-42F4-BC16-48B10D01944C}">
-      <formula1>"Password@@12,Gaurav@130,Piyush@1234"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{46EDD56F-FAFE-4739-930E-FA257EA5E1AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11" xr:uid="{1A24A0B3-E971-4C2A-9C5F-F837052220E2}">
       <formula1>"at,qlabs12345,merg123456"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{2E7EFDAC-2341-4F5E-87F6-82EA8C36AA4C}">
       <formula1>"kumar.gaurav@quadlabs.com,ankit@quadlabs.com"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{ABE2AA7D-F780-46FA-896F-DA131EBD0355}">
+      <formula1>"//xchangev12/backoffice/Home.aspx, //v12staging/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{5FA90882-06DF-4777-BAB8-D4008C1C15BE}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{8DE4BCA5-9505-4D80-8914-1FB1340D7979}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{3E59DFD6-1FBE-4DC0-BBB8-62E2CE361ED8}"/>
-    <hyperlink ref="G2" r:id="rId2" display="Password@1234" xr:uid="{B75E25C0-195E-4B46-A3E1-F3E3E71DBED6}"/>
-    <hyperlink ref="H2" r:id="rId3" display="ankit@quadlabs.com" xr:uid="{3FE8A31E-A084-4D53-8AD6-6500A8D37DC7}"/>
-    <hyperlink ref="H3:H11" r:id="rId4" display="ankit@quadlabs.com" xr:uid="{FB8EB32E-D085-45BF-8E12-C55A24892B4E}"/>
-    <hyperlink ref="F3" r:id="rId5" display="shubham.natkar@quadlabs.com" xr:uid="{DEF5BCA0-73E7-4907-9D3F-595DC9532C32}"/>
-    <hyperlink ref="G3" r:id="rId6" display="Piyush@321" xr:uid="{FA67ED6D-4AF9-48C7-BF30-0F5AC1FAA850}"/>
-    <hyperlink ref="F4" r:id="rId7" display="shubham.natkar@quadlabs.com" xr:uid="{789756DD-5CBB-4038-B00D-A96891FE9E1F}"/>
-    <hyperlink ref="G4" r:id="rId8" display="Piyush@321" xr:uid="{DD634505-1E9C-459F-9868-1B0C0D759D7D}"/>
-    <hyperlink ref="F5" r:id="rId9" display="shubham.natkar@quadlabs.com" xr:uid="{7F7FF37A-0530-40BC-87EB-5F28EF955313}"/>
-    <hyperlink ref="G5" r:id="rId10" display="Piyush@321" xr:uid="{C6EB36B9-6CD1-4B70-9112-319BCCBE8208}"/>
-    <hyperlink ref="F6" r:id="rId11" display="shubham.natkar@quadlabs.com" xr:uid="{067224B0-9DEE-405E-AFB8-487F4EE16D04}"/>
-    <hyperlink ref="G6" r:id="rId12" display="Piyush@321" xr:uid="{EDB379F5-493C-4150-B817-FB94331A4BD4}"/>
-    <hyperlink ref="F7" r:id="rId13" display="shubham.natkar@quadlabs.com" xr:uid="{DFFC8E45-A4E1-464B-9068-DE54D8F831D4}"/>
-    <hyperlink ref="G7" r:id="rId14" display="Piyush@321" xr:uid="{63E653CF-EF01-4CA0-B71E-3B9C413921F3}"/>
-    <hyperlink ref="F8" r:id="rId15" display="shubham.natkar@quadlabs.com" xr:uid="{7855AAD7-60E1-46FC-A886-B66184C732BA}"/>
-    <hyperlink ref="G8" r:id="rId16" display="Piyush@321" xr:uid="{3755FC28-A63B-4C57-8623-66CD69BA94D5}"/>
-    <hyperlink ref="F9" r:id="rId17" display="shubham.natkar@quadlabs.com" xr:uid="{B2BE6D14-F7ED-47F4-AC84-127D73E0D125}"/>
-    <hyperlink ref="G9" r:id="rId18" display="Piyush@321" xr:uid="{EF4BE998-811D-4348-A95D-1DC673068F71}"/>
-    <hyperlink ref="F10" r:id="rId19" display="shubham.natkar@quadlabs.com" xr:uid="{8DF28698-9D03-4E97-ADE1-76E02D2E1762}"/>
-    <hyperlink ref="G10" r:id="rId20" display="Piyush@321" xr:uid="{7A0E4EE2-CDFB-4F55-BEEF-5E24E9144D17}"/>
-    <hyperlink ref="F11" r:id="rId21" display="shubham.natkar@quadlabs.com" xr:uid="{3A19C412-1392-492D-AA4F-0E76C6529C41}"/>
-    <hyperlink ref="G11" r:id="rId22" display="Piyush@321" xr:uid="{60FB163B-E002-4AAC-8833-002C63F280DE}"/>
-    <hyperlink ref="H3" r:id="rId23" xr:uid="{4CB91228-FCA1-4796-A2E9-47E5E867D51B}"/>
-    <hyperlink ref="D2" r:id="rId24" display="http://xchangev12/backoffice/Home.aspx" xr:uid="{E68BB68D-2F87-4A99-B36E-E6096DE0EE2D}"/>
+    <hyperlink ref="H2" r:id="rId1" display="ankit@quadlabs.com" xr:uid="{3FE8A31E-A084-4D53-8AD6-6500A8D37DC7}"/>
+    <hyperlink ref="H3:H11" r:id="rId2" display="ankit@quadlabs.com" xr:uid="{FB8EB32E-D085-45BF-8E12-C55A24892B4E}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{4CB91228-FCA1-4796-A2E9-47E5E867D51B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B11FD07-B25D-40B3-9560-6C442FC09448}">
+  <dimension ref="A1:BP3"/>
+  <sheetViews>
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BA15" sqref="BA15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BP1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2">
+        <v>124578</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>123</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z2">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB2">
+        <v>14</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2">
+        <v>784522</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2">
+        <v>128</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK2">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM2">
+        <v>14</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP2">
+        <v>784523</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR2">
+        <v>110</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU2">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX2">
+        <v>100</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA2">
+        <v>2</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD2">
+        <v>100</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG2">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK2" s="9">
+        <v>3</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BN2">
+        <v>30</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3">
+        <v>127968</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB3">
+        <v>14</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3">
+        <v>784523</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI3">
+        <v>129</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK3">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM3">
+        <v>14</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP3">
+        <v>784524</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR3">
+        <v>110</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU3">
+        <v>2</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX3">
+        <v>100</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA3">
+        <v>2</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD3">
+        <v>100</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG3">
+        <v>2</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN3">
+        <v>30</v>
+      </c>
+      <c r="BO3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{2FE56497-7328-4ABE-A49E-BBF965CDCE17}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{C9322C29-720D-4BFC-A787-F083CBEE216B}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{0AD8E094-41CF-4214-A07C-A7DB1CC21E0C}">
+      <formula1>"//xchangev12/backoffice/Home.aspx, //v12staging/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{68AE823C-6CE7-42F9-9FAA-BFDB0C3A6616}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK3" xr:uid="{417CCDC8-DF3A-4D8A-882D-9CBFD19C380F}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3" xr:uid="{7E9428BD-070E-439D-A749-ED1D36598C3A}">
+      <formula1>"One Way,Round Trip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP3" xr:uid="{BFD729AC-C4BB-4578-8EDA-4DFB33EFA929}">
+      <formula1>"Adjustment,Bank Draft,Inter Booking Transfer,Net Banking,Credit Card,Bank Transfer,Debit Card,Cash,Cheque,Direct Deposit"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA3 BG2:BG3 AU2:AU3" xr:uid="{DB0AB49C-3CDE-4F8C-B2E9-2D6EDF0BFC04}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY3 BE2:BE3 BJ2:BJ3 AS2:AS3" xr:uid="{810BFEA5-3642-4344-A7FB-74862BD936EF}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ3" xr:uid="{69FBABAD-E986-4D98-AD57-83AF571CBAEA}">
+      <formula1>"ABC Supplier,ATsupplier,BSP Supplier,gaurav travel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:K3" xr:uid="{E2CF0AE2-64AA-4591-8B9C-36DF82FDF89D}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{5BBBCA73-8A97-4913-A6ED-3127463EF62D}">
+      <formula1>"kumar.gaurav@quadlabs.com,ankit@quadlabs.com,akshay.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="ankit@quadlabs.com" xr:uid="{E0855438-FAC1-4790-AE9C-0A10C4C1EC62}"/>
+    <hyperlink ref="H3" r:id="rId2" display="ankit@quadlabs.com" xr:uid="{348C6F18-4932-4BDB-9DAA-DFB3B63E6ACA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6636F4-599F-43D1-9219-436D88D19FD0}">
+  <dimension ref="A1:BP2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BP1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2">
+        <v>124578</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>123</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z2">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB2">
+        <v>14</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2">
+        <v>784521</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2">
+        <v>123</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK2">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM2">
+        <v>14</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP2">
+        <v>784541</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR2">
+        <v>100</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU2">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX2">
+        <v>100</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA2">
+        <v>2</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD2">
+        <v>100</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG2">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK2" s="9">
+        <v>3</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BN2">
+        <v>30</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{4403D22A-996F-42F6-8666-7148C2838701}">
+      <formula1>"kumar.gaurav@quadlabs.com,ankit@quadlabs.com,akshay.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{578BBCD2-A84E-4647-965C-511B261B370C}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{13357FA9-8F0C-491A-B85B-8B37C8353FBB}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{FBAA2943-1C80-452C-BA32-4664FA48724E}">
+      <formula1>"One Way,Round Trip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2" xr:uid="{A5C3FAC0-3434-4CDE-9837-4EE2CD43343D}">
+      <formula1>"Adjustment,Bank Draft,Inter Booking Transfer,Net Banking,Credit Card,Bank Transfer,Debit Card,Cash,Cheque,Direct Deposit"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2 BA2 BG2" xr:uid="{7863FD1D-1C60-4960-961B-B1042C1B1254}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2 AY2 BE2 BJ2" xr:uid="{EB7ECBFD-F251-44A6-96DD-11E808A302B5}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2" xr:uid="{3B47DB0D-E201-4B08-92ED-1AA873834BD3}">
+      <formula1>"ABC Supplier,ATsupplier,BSP Supplier,gaurav travel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:K2" xr:uid="{4AF6D9F2-D7C7-4553-924C-B50ADA76F216}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{64582CA8-9D40-496A-A231-B75BCC1C5A4A}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{F082A59C-18BF-437E-8467-B3D9A3F2AA8E}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{82D07BE0-A266-4170-A831-23DCCF6CCE50}">
+      <formula1>"//xchangev12/backoffice/Home.aspx, //v12staging/backoffice/"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="ankit@quadlabs.com" xr:uid="{A8A95E21-E296-4614-AB19-754374DC26B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C3E7EC-15CC-441E-B49C-BA8A79140B5B}">
   <dimension ref="A1:BP9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
+      <selection sqref="A1:BP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,187 +4631,187 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="AQ1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BI1" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BJ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BL1" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="BM1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BN1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
@@ -3607,7 +4819,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -3619,13 +4831,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="I2" s="9">
         <v>1</v>
@@ -3637,183 +4849,183 @@
         <v>0</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
         <v>70</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S2">
         <v>124578</v>
       </c>
       <c r="T2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
         <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>27</v>
       </c>
       <c r="X2">
         <v>123</v>
       </c>
-      <c r="Y2" s="13" t="s">
-        <v>143</v>
+      <c r="Y2" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="Z2" s="3">
         <v>12</v>
       </c>
-      <c r="AA2" s="13" t="s">
-        <v>144</v>
+      <c r="AA2" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="AB2">
         <v>14</v>
       </c>
       <c r="AC2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" t="s">
         <v>22</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>23</v>
       </c>
       <c r="AE2">
         <v>784521</v>
       </c>
       <c r="AF2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI2">
         <v>123</v>
       </c>
-      <c r="AJ2" s="13" t="s">
-        <v>147</v>
+      <c r="AJ2" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="AK2" s="3">
         <v>12</v>
       </c>
-      <c r="AL2" s="13" t="s">
-        <v>148</v>
+      <c r="AL2" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="AM2">
         <v>14</v>
       </c>
       <c r="AN2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" t="s">
         <v>22</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>23</v>
       </c>
       <c r="AP2">
         <v>784541</v>
       </c>
       <c r="AQ2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR2">
         <v>100</v>
       </c>
       <c r="AS2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT2" t="s">
         <v>28</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="s">
         <v>29</v>
       </c>
-      <c r="AU2">
-        <v>2</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>30</v>
-      </c>
       <c r="AW2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX2">
         <v>100</v>
       </c>
       <c r="AY2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>28</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2">
+        <v>2</v>
+      </c>
+      <c r="BB2" t="s">
         <v>29</v>
       </c>
-      <c r="BA2">
-        <v>2</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>30</v>
-      </c>
       <c r="BC2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD2">
         <v>100</v>
       </c>
       <c r="BE2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF2" t="s">
         <v>28</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="s">
         <v>29</v>
       </c>
-      <c r="BG2">
-        <v>2</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>30</v>
-      </c>
       <c r="BI2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK2" s="9">
         <v>3</v>
       </c>
       <c r="BL2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BN2">
         <v>30</v>
       </c>
       <c r="BO2" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="BP2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -3825,13 +5037,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
@@ -3843,183 +5055,183 @@
         <v>0</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
         <v>70</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>71</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S3">
         <v>124578</v>
       </c>
       <c r="T3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
         <v>26</v>
-      </c>
-      <c r="V3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" t="s">
-        <v>27</v>
       </c>
       <c r="X3">
         <v>123</v>
       </c>
-      <c r="Y3" s="13" t="s">
-        <v>143</v>
+      <c r="Y3" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="Z3" s="3">
         <v>12</v>
       </c>
-      <c r="AA3" s="13" t="s">
-        <v>144</v>
+      <c r="AA3" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="AB3">
         <v>14</v>
       </c>
       <c r="AC3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" t="s">
         <v>22</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>23</v>
       </c>
       <c r="AE3">
         <v>784521</v>
       </c>
       <c r="AF3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI3">
         <v>123</v>
       </c>
-      <c r="AJ3" s="13" t="s">
-        <v>149</v>
+      <c r="AJ3" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="AK3" s="3">
         <v>12</v>
       </c>
-      <c r="AL3" s="13" t="s">
-        <v>150</v>
+      <c r="AL3" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AM3">
         <v>14</v>
       </c>
       <c r="AN3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO3" t="s">
         <v>22</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>23</v>
       </c>
       <c r="AP3">
         <v>784541</v>
       </c>
       <c r="AQ3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR3">
         <v>100</v>
       </c>
       <c r="AS3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT3" t="s">
         <v>28</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3">
+        <v>2</v>
+      </c>
+      <c r="AV3" t="s">
         <v>29</v>
       </c>
-      <c r="AU3">
-        <v>2</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>30</v>
-      </c>
       <c r="AW3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX3">
         <v>100</v>
       </c>
       <c r="AY3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>28</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3">
+        <v>2</v>
+      </c>
+      <c r="BB3" t="s">
         <v>29</v>
       </c>
-      <c r="BA3">
-        <v>2</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>30</v>
-      </c>
       <c r="BC3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD3">
         <v>100</v>
       </c>
       <c r="BE3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF3" t="s">
         <v>28</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3">
+        <v>2</v>
+      </c>
+      <c r="BH3" t="s">
         <v>29</v>
       </c>
-      <c r="BG3">
-        <v>2</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>30</v>
-      </c>
       <c r="BI3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK3" s="9">
         <v>1</v>
       </c>
       <c r="BL3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BN3">
         <v>30</v>
       </c>
       <c r="BO3" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="BP3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -4031,13 +5243,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
@@ -4049,183 +5261,183 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S4">
         <v>124578</v>
       </c>
       <c r="T4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
         <v>26</v>
-      </c>
-      <c r="V4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" t="s">
-        <v>27</v>
       </c>
       <c r="X4">
         <v>123</v>
       </c>
-      <c r="Y4" s="13" t="s">
-        <v>143</v>
+      <c r="Y4" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="Z4" s="3">
         <v>12</v>
       </c>
-      <c r="AA4" s="13" t="s">
-        <v>144</v>
+      <c r="AA4" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="AB4">
         <v>14</v>
       </c>
       <c r="AC4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" t="s">
         <v>22</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>23</v>
       </c>
       <c r="AE4">
         <v>784521</v>
       </c>
       <c r="AF4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI4">
         <v>123</v>
       </c>
-      <c r="AJ4" s="13" t="s">
-        <v>147</v>
+      <c r="AJ4" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="AK4" s="3">
         <v>12</v>
       </c>
-      <c r="AL4" s="13" t="s">
-        <v>148</v>
+      <c r="AL4" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="AM4">
         <v>14</v>
       </c>
       <c r="AN4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO4" t="s">
         <v>22</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>23</v>
       </c>
       <c r="AP4">
         <v>784541</v>
       </c>
       <c r="AQ4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR4">
         <v>100</v>
       </c>
       <c r="AS4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT4" t="s">
         <v>28</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4" t="s">
         <v>29</v>
       </c>
-      <c r="AU4">
-        <v>2</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>30</v>
-      </c>
       <c r="AW4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX4">
         <v>100</v>
       </c>
       <c r="AY4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>28</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4">
+        <v>2</v>
+      </c>
+      <c r="BB4" t="s">
         <v>29</v>
       </c>
-      <c r="BA4">
-        <v>2</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>30</v>
-      </c>
       <c r="BC4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD4">
         <v>100</v>
       </c>
       <c r="BE4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF4" t="s">
         <v>28</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4">
+        <v>2</v>
+      </c>
+      <c r="BH4" t="s">
         <v>29</v>
       </c>
-      <c r="BG4">
-        <v>2</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>30</v>
-      </c>
       <c r="BI4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK4" s="9">
         <v>2</v>
       </c>
       <c r="BL4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BN4">
         <v>30</v>
       </c>
       <c r="BO4" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="BP4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -4237,13 +5449,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
@@ -4255,183 +5467,183 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
         <v>70</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S5">
         <v>124578</v>
       </c>
       <c r="T5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
         <v>26</v>
-      </c>
-      <c r="V5" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" t="s">
-        <v>27</v>
       </c>
       <c r="X5">
         <v>123</v>
       </c>
-      <c r="Y5" s="13" t="s">
-        <v>143</v>
+      <c r="Y5" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="Z5" s="3">
         <v>12</v>
       </c>
-      <c r="AA5" s="13" t="s">
-        <v>144</v>
+      <c r="AA5" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="AB5">
         <v>14</v>
       </c>
       <c r="AC5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD5" t="s">
         <v>22</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>23</v>
       </c>
       <c r="AE5">
         <v>784521</v>
       </c>
       <c r="AF5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI5">
         <v>123</v>
       </c>
-      <c r="AJ5" s="13" t="s">
-        <v>149</v>
+      <c r="AJ5" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="AK5" s="3">
         <v>12</v>
       </c>
-      <c r="AL5" s="13" t="s">
-        <v>150</v>
+      <c r="AL5" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AM5">
         <v>14</v>
       </c>
       <c r="AN5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO5" t="s">
         <v>22</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>23</v>
       </c>
       <c r="AP5">
         <v>784541</v>
       </c>
       <c r="AQ5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5">
         <v>100</v>
       </c>
       <c r="AS5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT5" t="s">
         <v>28</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5">
+        <v>2</v>
+      </c>
+      <c r="AV5" t="s">
         <v>29</v>
       </c>
-      <c r="AU5">
-        <v>2</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>30</v>
-      </c>
       <c r="AW5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX5">
         <v>100</v>
       </c>
       <c r="AY5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>28</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5">
+        <v>2</v>
+      </c>
+      <c r="BB5" t="s">
         <v>29</v>
       </c>
-      <c r="BA5">
-        <v>2</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>30</v>
-      </c>
       <c r="BC5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD5">
         <v>100</v>
       </c>
       <c r="BE5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF5" t="s">
         <v>28</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5">
+        <v>2</v>
+      </c>
+      <c r="BH5" t="s">
         <v>29</v>
       </c>
-      <c r="BG5">
-        <v>2</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>30</v>
-      </c>
       <c r="BI5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK5" s="9">
         <v>1</v>
       </c>
       <c r="BL5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BN5">
         <v>30</v>
       </c>
       <c r="BO5" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="BP5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -4443,13 +5655,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="I6" s="9">
         <v>1</v>
@@ -4461,183 +5673,183 @@
         <v>0</v>
       </c>
       <c r="L6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>71</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S6">
         <v>124578</v>
       </c>
       <c r="T6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" t="s">
         <v>26</v>
-      </c>
-      <c r="V6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W6" t="s">
-        <v>27</v>
       </c>
       <c r="X6">
         <v>123</v>
       </c>
-      <c r="Y6" s="13" t="s">
-        <v>143</v>
+      <c r="Y6" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="Z6" s="3">
         <v>12</v>
       </c>
-      <c r="AA6" s="13" t="s">
-        <v>144</v>
+      <c r="AA6" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="AB6">
         <v>14</v>
       </c>
       <c r="AC6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD6" t="s">
         <v>22</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>23</v>
       </c>
       <c r="AE6">
         <v>784521</v>
       </c>
       <c r="AF6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI6">
         <v>123</v>
       </c>
-      <c r="AJ6" s="13" t="s">
-        <v>147</v>
+      <c r="AJ6" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="AK6" s="3">
         <v>12</v>
       </c>
-      <c r="AL6" s="13" t="s">
-        <v>148</v>
+      <c r="AL6" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="AM6">
         <v>14</v>
       </c>
       <c r="AN6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO6" t="s">
         <v>22</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>23</v>
       </c>
       <c r="AP6">
         <v>784541</v>
       </c>
       <c r="AQ6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR6">
         <v>100</v>
       </c>
       <c r="AS6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT6" t="s">
         <v>28</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6">
+        <v>2</v>
+      </c>
+      <c r="AV6" t="s">
         <v>29</v>
       </c>
-      <c r="AU6">
-        <v>2</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>30</v>
-      </c>
       <c r="AW6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX6">
         <v>100</v>
       </c>
       <c r="AY6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>28</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6">
+        <v>2</v>
+      </c>
+      <c r="BB6" t="s">
         <v>29</v>
       </c>
-      <c r="BA6">
-        <v>2</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>30</v>
-      </c>
       <c r="BC6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD6">
         <v>100</v>
       </c>
       <c r="BE6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF6" t="s">
         <v>28</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6">
+        <v>2</v>
+      </c>
+      <c r="BH6" t="s">
         <v>29</v>
       </c>
-      <c r="BG6">
-        <v>2</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>30</v>
-      </c>
       <c r="BI6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK6" s="9">
         <v>3</v>
       </c>
       <c r="BL6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BN6">
         <v>30</v>
       </c>
       <c r="BO6" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="BP6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -4649,13 +5861,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="I7" s="9">
         <v>1</v>
@@ -4667,183 +5879,183 @@
         <v>0</v>
       </c>
       <c r="L7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
         <v>70</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>71</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S7">
         <v>124578</v>
       </c>
       <c r="T7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" t="s">
         <v>26</v>
-      </c>
-      <c r="V7" t="s">
-        <v>38</v>
-      </c>
-      <c r="W7" t="s">
-        <v>27</v>
       </c>
       <c r="X7">
         <v>123</v>
       </c>
-      <c r="Y7" s="13" t="s">
-        <v>143</v>
+      <c r="Y7" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="Z7" s="3">
         <v>12</v>
       </c>
-      <c r="AA7" s="13" t="s">
-        <v>144</v>
+      <c r="AA7" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="AB7">
         <v>14</v>
       </c>
       <c r="AC7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD7" t="s">
         <v>22</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>23</v>
       </c>
       <c r="AE7">
         <v>784521</v>
       </c>
       <c r="AF7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7">
         <v>123</v>
       </c>
-      <c r="AJ7" s="13" t="s">
-        <v>149</v>
+      <c r="AJ7" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="AK7" s="3">
         <v>12</v>
       </c>
-      <c r="AL7" s="13" t="s">
-        <v>150</v>
+      <c r="AL7" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AM7">
         <v>14</v>
       </c>
       <c r="AN7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO7" t="s">
         <v>22</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>23</v>
       </c>
       <c r="AP7">
         <v>784541</v>
       </c>
       <c r="AQ7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR7">
         <v>100</v>
       </c>
       <c r="AS7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT7" t="s">
         <v>28</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7">
+        <v>2</v>
+      </c>
+      <c r="AV7" t="s">
         <v>29</v>
       </c>
-      <c r="AU7">
-        <v>2</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>30</v>
-      </c>
       <c r="AW7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX7">
         <v>100</v>
       </c>
       <c r="AY7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>28</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7">
+        <v>2</v>
+      </c>
+      <c r="BB7" t="s">
         <v>29</v>
       </c>
-      <c r="BA7">
-        <v>2</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>30</v>
-      </c>
       <c r="BC7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD7">
         <v>100</v>
       </c>
       <c r="BE7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF7" t="s">
         <v>28</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7">
+        <v>2</v>
+      </c>
+      <c r="BH7" t="s">
         <v>29</v>
       </c>
-      <c r="BG7">
-        <v>2</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>30</v>
-      </c>
       <c r="BI7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK7" s="9">
         <v>1</v>
       </c>
       <c r="BL7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BN7">
         <v>30</v>
       </c>
       <c r="BO7" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="BP7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -4855,13 +6067,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="I8" s="9">
         <v>1</v>
@@ -4873,183 +6085,183 @@
         <v>1</v>
       </c>
       <c r="L8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
         <v>70</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>71</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S8">
         <v>124578</v>
       </c>
       <c r="T8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" t="s">
         <v>26</v>
-      </c>
-      <c r="V8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" t="s">
-        <v>27</v>
       </c>
       <c r="X8">
         <v>123</v>
       </c>
-      <c r="Y8" s="13" t="s">
-        <v>143</v>
+      <c r="Y8" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="Z8" s="3">
         <v>12</v>
       </c>
-      <c r="AA8" s="13" t="s">
-        <v>144</v>
+      <c r="AA8" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="AB8">
         <v>14</v>
       </c>
       <c r="AC8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD8" t="s">
         <v>22</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>23</v>
       </c>
       <c r="AE8">
         <v>784521</v>
       </c>
       <c r="AF8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI8">
         <v>123</v>
       </c>
-      <c r="AJ8" s="13" t="s">
-        <v>147</v>
+      <c r="AJ8" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="AK8" s="3">
         <v>12</v>
       </c>
-      <c r="AL8" s="13" t="s">
-        <v>148</v>
+      <c r="AL8" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="AM8">
         <v>14</v>
       </c>
       <c r="AN8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO8" t="s">
         <v>22</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>23</v>
       </c>
       <c r="AP8">
         <v>784541</v>
       </c>
       <c r="AQ8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR8">
         <v>100</v>
       </c>
       <c r="AS8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT8" t="s">
         <v>28</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="s">
         <v>29</v>
       </c>
-      <c r="AU8">
-        <v>2</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>30</v>
-      </c>
       <c r="AW8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX8">
         <v>100</v>
       </c>
       <c r="AY8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>28</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8">
+        <v>2</v>
+      </c>
+      <c r="BB8" t="s">
         <v>29</v>
       </c>
-      <c r="BA8">
-        <v>2</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>30</v>
-      </c>
       <c r="BC8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD8">
         <v>100</v>
       </c>
       <c r="BE8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF8" t="s">
         <v>28</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8">
+        <v>2</v>
+      </c>
+      <c r="BH8" t="s">
         <v>29</v>
       </c>
-      <c r="BG8">
-        <v>2</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>30</v>
-      </c>
       <c r="BI8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK8" s="9">
         <v>1</v>
       </c>
       <c r="BL8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BN8">
         <v>30</v>
       </c>
       <c r="BO8" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="BP8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -5061,13 +6273,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="I9" s="9">
         <v>2</v>
@@ -5079,175 +6291,175 @@
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
         <v>70</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>71</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S9">
         <v>124578</v>
       </c>
       <c r="T9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" t="s">
         <v>26</v>
-      </c>
-      <c r="V9" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" t="s">
-        <v>27</v>
       </c>
       <c r="X9">
         <v>123</v>
       </c>
-      <c r="Y9" s="13" t="s">
-        <v>143</v>
+      <c r="Y9" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="Z9" s="3">
         <v>12</v>
       </c>
-      <c r="AA9" s="13" t="s">
-        <v>144</v>
+      <c r="AA9" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="AB9">
         <v>14</v>
       </c>
       <c r="AC9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD9" t="s">
         <v>22</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>23</v>
       </c>
       <c r="AE9">
         <v>784521</v>
       </c>
       <c r="AF9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9">
         <v>123</v>
       </c>
-      <c r="AJ9" s="13" t="s">
-        <v>149</v>
+      <c r="AJ9" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="AK9" s="3">
         <v>12</v>
       </c>
-      <c r="AL9" s="13" t="s">
-        <v>150</v>
+      <c r="AL9" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AM9">
         <v>14</v>
       </c>
       <c r="AN9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO9" t="s">
         <v>22</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>23</v>
       </c>
       <c r="AP9">
         <v>784541</v>
       </c>
       <c r="AQ9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR9">
         <v>100</v>
       </c>
       <c r="AS9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT9" t="s">
         <v>28</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9" t="s">
         <v>29</v>
       </c>
-      <c r="AU9">
-        <v>2</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>30</v>
-      </c>
       <c r="AW9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX9">
         <v>100</v>
       </c>
       <c r="AY9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>28</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9">
+        <v>2</v>
+      </c>
+      <c r="BB9" t="s">
         <v>29</v>
       </c>
-      <c r="BA9">
-        <v>2</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>30</v>
-      </c>
       <c r="BC9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD9">
         <v>100</v>
       </c>
       <c r="BE9" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF9" t="s">
         <v>28</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BG9">
+        <v>2</v>
+      </c>
+      <c r="BH9" t="s">
         <v>29</v>
       </c>
-      <c r="BG9">
-        <v>2</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>30</v>
-      </c>
       <c r="BI9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK9" s="9">
         <v>2</v>
       </c>
       <c r="BL9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BM9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BN9">
         <v>30</v>
       </c>
       <c r="BO9" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="BP9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5314,4 +6526,466 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E601FE76-DA4B-4D2F-B892-1691EE89E2D6}">
+  <dimension ref="A1:BP2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2">
+        <v>124578</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>123</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB2">
+        <v>14</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2">
+        <v>784521</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2">
+        <v>123</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM2">
+        <v>14</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP2">
+        <v>784541</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR2">
+        <v>100</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU2">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX2">
+        <v>100</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA2">
+        <v>2</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD2">
+        <v>100</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG2">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK2" s="9">
+        <v>3</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BN2">
+        <v>30</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:K2" xr:uid="{867B2EE6-491F-423E-8742-2F81C1C9A495}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2" xr:uid="{311EBBA1-37F9-4A71-84EE-53E703F5DC56}">
+      <formula1>"ABC Supplier,ATsupplier,BSP Supplier,gaurav travel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2 BJ2 BE2 AY2" xr:uid="{38E6634F-78E6-46AA-8912-D892A4EFD171}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2 BG2 BA2" xr:uid="{83735850-37A4-4D29-97BC-EFDE8DBDDA26}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2" xr:uid="{FB5FFD94-6422-4C05-BF1A-B05BB916C998}">
+      <formula1>"Adjustment,Bank Draft,Inter Booking Transfer,Net Banking,Credit Card,Bank Transfer,Debit Card,Cash,Cheque,Direct Deposit"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{2506F861-3F78-4C6D-B3A3-6021445E376D}">
+      <formula1>"One Way,Round Trip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{C0707CF0-FB44-4D09-A9A3-97C93F5169D6}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{3886261B-195F-42BC-B7B5-C7CAE702F4FA}">
+      <formula1>"//xchangev12/backoffice/Home.aspx, //v12staging/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{B27E87B7-76AF-44F1-B8E1-BA43A97E1041}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{376BC95E-F3D2-4678-90F2-7A235F75B9FD}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{C5E9C7AF-336C-4D66-9D15-5D639DEBA523}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/excel/FlightManualBooking.xlsx
+++ b/data/excel/FlightManualBooking.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE52EAD7-70F7-4179-B6DD-0D02DFA9516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEC6407-DD7B-43F9-8FE7-4AB64D3EDD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BODC" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
     <sheet name="BOCA" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="183">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -523,57 +523,6 @@
     <t>7777777502,8888888824,8888888825,8888888826,8888888827</t>
   </si>
   <si>
-    <t>7007777102,8800888824,8800888825,8800888826,8800888827</t>
-  </si>
-  <si>
-    <t>qlabs12346</t>
-  </si>
-  <si>
-    <t>qlabs12347</t>
-  </si>
-  <si>
-    <t>qlabs12348</t>
-  </si>
-  <si>
-    <t>qlabs12349</t>
-  </si>
-  <si>
-    <t>qlabs12350</t>
-  </si>
-  <si>
-    <t>qlabs12351</t>
-  </si>
-  <si>
-    <t>qlabs12352</t>
-  </si>
-  <si>
-    <t>qlabs12353</t>
-  </si>
-  <si>
-    <t>qlabs12354</t>
-  </si>
-  <si>
-    <t>6-Aug-2025</t>
-  </si>
-  <si>
-    <t>8-Aug-2025</t>
-  </si>
-  <si>
-    <t>16-Aug-2025</t>
-  </si>
-  <si>
-    <t>18-Aug-2025</t>
-  </si>
-  <si>
-    <t>10,15</t>
-  </si>
-  <si>
-    <t>7770007077,7700777078,8888888825,8888888826,8888888827</t>
-  </si>
-  <si>
-    <t>7777000101,8888008824,8888888825,8888888826,8888888827</t>
-  </si>
-  <si>
     <t>piyush@gmail.com</t>
   </si>
   <si>
@@ -595,7 +544,46 @@
     <t>16-Oct-2025</t>
   </si>
   <si>
-    <t>7777000502,8888000824,8888888825,8888888826,8888888827</t>
+    <t>Gaurav Dueby,Sumit Shah</t>
+  </si>
+  <si>
+    <t>EE6B4B@E7</t>
+  </si>
+  <si>
+    <t>Piyush_ql</t>
+  </si>
+  <si>
+    <t>Shubham Shankar,Sumit Shah</t>
+  </si>
+  <si>
+    <t>7000777107,8800888824,8800888825,8800888826,8800888827</t>
+  </si>
+  <si>
+    <t>777000504,8888000824,8888888825,8888888826,8888888827</t>
+  </si>
+  <si>
+    <t>F1CD@9E4B</t>
+  </si>
+  <si>
+    <t>Rohit Shah,Sunita Shah</t>
+  </si>
+  <si>
+    <t>9-Aug-2025</t>
+  </si>
+  <si>
+    <t>Verify manual booking for one way flight with 1 adult , 1 child</t>
+  </si>
+  <si>
+    <t>5-Aug-2024,5-Feb-2023</t>
+  </si>
+  <si>
+    <t>7777777112,7777777113,7777777114,8888888826,8888888827</t>
+  </si>
+  <si>
+    <t>7777000116,8888008117,8888888118,8888888828,8888888829</t>
+  </si>
+  <si>
+    <t>7077771007,7077771009,7777771010,7777771008,7777771009</t>
   </si>
 </sst>
 </file>
@@ -690,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -710,6 +698,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -993,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8A60BA-B3CF-40F5-BA52-FF2E931720C5}">
   <dimension ref="A1:BP11"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:BP8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1484,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>153</v>
@@ -1701,7 +1690,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>153</v>
@@ -1907,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>153</v>
@@ -2113,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>153</v>
@@ -2319,7 +2308,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>153</v>
@@ -2525,7 +2514,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>153</v>
@@ -2731,7 +2720,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>153</v>
@@ -2937,7 +2926,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>153</v>
@@ -3143,7 +3132,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>153</v>
@@ -3385,14 +3374,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B11FD07-B25D-40B3-9560-6C442FC09448}">
-  <dimension ref="A1:BP3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6636F4-599F-43D1-9219-436D88D19FD0}">
+  <dimension ref="A1:BP7"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BA15" sqref="BA15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3416,6 +3408,684 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="3">
+        <v>124578</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="3">
+        <v>123</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>784521</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>123</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>784541</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>100</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>100</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK2" s="15">
+        <v>3</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BN2" s="3">
+        <v>30</v>
+      </c>
+      <c r="BO2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="3">
+        <v>124579</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" s="3">
+        <v>123</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>784522</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>128</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>14</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>784542</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>100</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>100</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>2</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>100</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>2</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK7" s="15">
+        <v>2</v>
+      </c>
+      <c r="BL7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>30</v>
+      </c>
+      <c r="BO7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="BP7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H7" xr:uid="{4403D22A-996F-42F6-8666-7148C2838701}">
+      <formula1>"kumar.gaurav@quadlabs.com,ankit@quadlabs.com,akshay.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E7" xr:uid="{578BBCD2-A84E-4647-965C-511B261B370C}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2 BK7" xr:uid="{13357FA9-8F0C-491A-B85B-8B37C8353FBB}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2 V7" xr:uid="{FBAA2943-1C80-452C-BA32-4664FA48724E}">
+      <formula1>"One Way,Round Trip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2 BP7" xr:uid="{A5C3FAC0-3434-4CDE-9837-4EE2CD43343D}">
+      <formula1>"Adjustment,Bank Draft,Inter Booking Transfer,Net Banking,Credit Card,Bank Transfer,Debit Card,Cash,Cheque,Direct Deposit"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2 BG2 BA2 AU7 BG7 BA7" xr:uid="{7863FD1D-1C60-4960-961B-B1042C1B1254}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2 BJ2 BE2 AY2 AS7 BJ7 BE7 AY7" xr:uid="{EB7ECBFD-F251-44A6-96DD-11E808A302B5}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2 AQ7" xr:uid="{3B47DB0D-E201-4B08-92ED-1AA873834BD3}">
+      <formula1>"ABC Supplier,ATsupplier,BSP Supplier,gaurav travel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:K2 I7:K7" xr:uid="{4AF6D9F2-D7C7-4553-924C-B50ADA76F216}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G7" xr:uid="{64582CA8-9D40-496A-A231-B75BCC1C5A4A}">
+      <formula1>"EE6B4B@E7,Ankur@12345,F1CD@9E4B"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F7" xr:uid="{F082A59C-18BF-437E-8467-B3D9A3F2AA8E}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D7" xr:uid="{82D07BE0-A266-4170-A831-23DCCF6CCE50}">
+      <formula1>"//xchangev12/backoffice/Home.aspx, //v12staging/backoffice/"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="ankit@quadlabs.com" xr:uid="{A8A95E21-E296-4614-AB19-754374DC26B7}"/>
+    <hyperlink ref="H7" r:id="rId2" display="ankit@quadlabs.com" xr:uid="{8A55756D-3228-4307-8406-E15AD9F86C2A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B11FD07-B25D-40B3-9560-6C442FC09448}">
+  <dimension ref="A1:BP3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
@@ -3617,10 +4287,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>160</v>
@@ -3635,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="M2" t="s">
         <v>70</v>
@@ -3656,7 +4326,7 @@
         <v>14</v>
       </c>
       <c r="S2">
-        <v>124578</v>
+        <v>1245001</v>
       </c>
       <c r="T2" t="s">
         <v>26</v>
@@ -3671,7 +4341,7 @@
         <v>26</v>
       </c>
       <c r="X2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>156</v>
@@ -3692,7 +4362,7 @@
         <v>22</v>
       </c>
       <c r="AE2">
-        <v>784522</v>
+        <v>784552</v>
       </c>
       <c r="AF2" t="s">
         <v>14</v>
@@ -3704,7 +4374,7 @@
         <v>26</v>
       </c>
       <c r="AI2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AJ2" s="7" t="s">
         <v>158</v>
@@ -3800,7 +4470,7 @@
         <v>30</v>
       </c>
       <c r="BO2" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="BP2" t="s">
         <v>34</v>
@@ -3811,7 +4481,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -3823,10 +4493,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>160</v>
@@ -3841,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="N3" t="s">
         <v>71</v>
@@ -3862,7 +4532,7 @@
         <v>14</v>
       </c>
       <c r="S3">
-        <v>127968</v>
+        <v>1245003</v>
       </c>
       <c r="T3" t="s">
         <v>26</v>
@@ -3871,22 +4541,22 @@
         <v>25</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s">
         <v>26</v>
       </c>
       <c r="X3">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="Z3">
         <v>12</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AB3">
         <v>14</v>
@@ -3898,7 +4568,7 @@
         <v>22</v>
       </c>
       <c r="AE3">
-        <v>784523</v>
+        <v>784554</v>
       </c>
       <c r="AF3" t="s">
         <v>14</v>
@@ -3910,16 +4580,16 @@
         <v>26</v>
       </c>
       <c r="AI3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="AK3">
         <v>12</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="AM3">
         <v>14</v>
@@ -3931,13 +4601,13 @@
         <v>22</v>
       </c>
       <c r="AP3">
-        <v>784524</v>
+        <v>784525</v>
       </c>
       <c r="AQ3" t="s">
         <v>24</v>
       </c>
       <c r="AR3">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AS3" t="s">
         <v>27</v>
@@ -3952,7 +4622,7 @@
         <v>29</v>
       </c>
       <c r="AW3" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="AX3">
         <v>100</v>
@@ -3994,19 +4664,19 @@
         <v>27</v>
       </c>
       <c r="BK3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL3" t="s">
         <v>113</v>
       </c>
       <c r="BM3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="BN3">
         <v>30</v>
       </c>
       <c r="BO3" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="BP3" t="s">
         <v>34</v>
@@ -4014,9 +4684,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{2FE56497-7328-4ABE-A49E-BBF965CDCE17}">
-      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2" xr:uid="{69FBABAD-E986-4D98-AD57-83AF571CBAEA}">
+      <formula1>"ABC Supplier,ATsupplier,BSP Supplier,gaurav travel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3" xr:uid="{D4F4EAF6-4D84-4326-BF59-857CD7C18849}">
+      <formula1>"ABC Supplier,ATsupplier,BSP Supplier,Gaurav Travel"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{C9322C29-720D-4BFC-A787-F083CBEE216B}">
       <formula1>"Piyush_ql,ankur_ql"</formula1>
@@ -4036,14 +4709,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP3" xr:uid="{BFD729AC-C4BB-4578-8EDA-4DFB33EFA929}">
       <formula1>"Adjustment,Bank Draft,Inter Booking Transfer,Net Banking,Credit Card,Bank Transfer,Debit Card,Cash,Cheque,Direct Deposit"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA3 BG2:BG3 AU2:AU3" xr:uid="{DB0AB49C-3CDE-4F8C-B2E9-2D6EDF0BFC04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU3 BA2:BA3 BG2:BG3" xr:uid="{DB0AB49C-3CDE-4F8C-B2E9-2D6EDF0BFC04}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY3 BE2:BE3 BJ2:BJ3 AS2:AS3" xr:uid="{810BFEA5-3642-4344-A7FB-74862BD936EF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS3 AY2:AY3 BE2:BE3 BJ2:BJ3" xr:uid="{810BFEA5-3642-4344-A7FB-74862BD936EF}">
       <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ3" xr:uid="{69FBABAD-E986-4D98-AD57-83AF571CBAEA}">
-      <formula1>"ABC Supplier,ATsupplier,BSP Supplier,gaurav travel"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:K3" xr:uid="{E2CF0AE2-64AA-4591-8B9C-36DF82FDF89D}">
       <formula1>"0,1,2,3,4,5"</formula1>
@@ -4051,478 +4721,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{5BBBCA73-8A97-4913-A6ED-3127463EF62D}">
       <formula1>"kumar.gaurav@quadlabs.com,ankit@quadlabs.com,akshay.kumar@quadlabs.com"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{1CF1A54C-9E4A-498C-998F-F8C150727FDF}">
+      <formula1>"EE6B4B@E7,Ankur@12345,F1CD@9E4B"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="ankit@quadlabs.com" xr:uid="{E0855438-FAC1-4790-AE9C-0A10C4C1EC62}"/>
-    <hyperlink ref="H3" r:id="rId2" display="ankit@quadlabs.com" xr:uid="{348C6F18-4932-4BDB-9DAA-DFB3B63E6ACA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6636F4-599F-43D1-9219-436D88D19FD0}">
-  <dimension ref="A1:BP2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="BE1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BF1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="BJ1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="BK1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BP1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2">
-        <v>124578</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2">
-        <v>123</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z2">
-        <v>12</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB2">
-        <v>14</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE2">
-        <v>784521</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI2">
-        <v>123</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK2">
-        <v>12</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM2">
-        <v>14</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP2">
-        <v>784541</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR2">
-        <v>100</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU2">
-        <v>2</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AX2">
-        <v>100</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA2">
-        <v>2</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD2">
-        <v>100</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>27</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG2">
-        <v>2</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>27</v>
-      </c>
-      <c r="BK2" s="9">
-        <v>3</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BN2">
-        <v>30</v>
-      </c>
-      <c r="BO2" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{4403D22A-996F-42F6-8666-7148C2838701}">
-      <formula1>"kumar.gaurav@quadlabs.com,ankit@quadlabs.com,akshay.kumar@quadlabs.com"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{578BBCD2-A84E-4647-965C-511B261B370C}">
-      <formula1>"at,qlabs12345,merg123456"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{13357FA9-8F0C-491A-B85B-8B37C8353FBB}">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{FBAA2943-1C80-452C-BA32-4664FA48724E}">
-      <formula1>"One Way,Round Trip"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2" xr:uid="{A5C3FAC0-3434-4CDE-9837-4EE2CD43343D}">
-      <formula1>"Adjustment,Bank Draft,Inter Booking Transfer,Net Banking,Credit Card,Bank Transfer,Debit Card,Cash,Cheque,Direct Deposit"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2 BA2 BG2" xr:uid="{7863FD1D-1C60-4960-961B-B1042C1B1254}">
-      <formula1>"1,2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2 AY2 BE2 BJ2" xr:uid="{EB7ECBFD-F251-44A6-96DD-11E808A302B5}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2" xr:uid="{3B47DB0D-E201-4B08-92ED-1AA873834BD3}">
-      <formula1>"ABC Supplier,ATsupplier,BSP Supplier,gaurav travel"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:K2" xr:uid="{4AF6D9F2-D7C7-4553-924C-B50ADA76F216}">
-      <formula1>"0,1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{64582CA8-9D40-496A-A231-B75BCC1C5A4A}">
-      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{F082A59C-18BF-437E-8467-B3D9A3F2AA8E}">
-      <formula1>"Piyush_ql,ankur_ql"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{82D07BE0-A266-4170-A831-23DCCF6CCE50}">
-      <formula1>"//xchangev12/backoffice/Home.aspx, //v12staging/backoffice/"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="ankit@quadlabs.com" xr:uid="{A8A95E21-E296-4614-AB19-754374DC26B7}"/>
+    <hyperlink ref="H3" r:id="rId2" display="ankit@quadlabs.com" xr:uid="{A95AA7B7-E0CB-4C67-A2FC-3BCF527C0400}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{04D498EC-AC45-40FC-A898-70AB274FCC11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4532,7 +4738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C3E7EC-15CC-441E-B49C-BA8A79140B5B}">
   <dimension ref="A1:BP9"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:BP2"/>
     </sheetView>
   </sheetViews>
@@ -6532,8 +6738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E601FE76-DA4B-4D2F-B892-1691EE89E2D6}">
   <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6764,10 +6970,10 @@
         <v>153</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="I2" s="9">
         <v>1</v>
@@ -6779,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="M2" t="s">
         <v>70</v>
@@ -6791,7 +6997,7 @@
         <v>72</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
@@ -6818,13 +7024,13 @@
         <v>123</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="Z2" s="3">
         <v>12</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="AB2">
         <v>14</v>
@@ -6851,13 +7057,13 @@
         <v>123</v>
       </c>
       <c r="AJ2" s="12" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="AK2" s="3">
         <v>12</v>
       </c>
       <c r="AL2" s="12" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="AM2">
         <v>14</v>
@@ -6944,7 +7150,7 @@
         <v>30</v>
       </c>
       <c r="BO2" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="BP2" t="s">
         <v>34</v>
@@ -6979,11 +7185,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{B27E87B7-76AF-44F1-B8E1-BA43A97E1041}">
       <formula1>"Piyush_ql,ankur_ql"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{376BC95E-F3D2-4678-90F2-7A235F75B9FD}">
-      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{C5E9C7AF-336C-4D66-9D15-5D639DEBA523}">
       <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{AA08BD85-18CA-4630-9F60-5E2AE88CB0D2}">
+      <formula1>"EE6B4B@E7,Ankur@12345,F1CD@9E4B"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
